--- a/temp/final_output_standard.xlsx
+++ b/temp/final_output_standard.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>DEBIT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>CREDIT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DEBIT</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRANDWAG                              </t>
+          <t>BRANDWAG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RUWACON PTY LTD                       </t>
+          <t>RUWACON PTY LTD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -502,7 +502,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OPEN BALANCE                          </t>
+          <t>OPEN BALANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PIONEER 22221566916                   </t>
+          <t>PIONEER 22221566916</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -540,7 +540,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -559,7 +559,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">COCT VEN   0000028904-                </t>
+          <t>COCT VEN   0000028904-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -692,7 +692,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASHFOCUS 380000 RWC ABSA             </t>
+          <t>CASHFOCUS 380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">MARIA LAPTOP                          </t>
+          <t>MARIA LAPTOP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">12341                                 </t>
+          <t>12341</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -768,7 +768,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAPITEC    DUKATHOLE                  </t>
+          <t>CAPITEC    DUKATHOLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ABSA       380000 RWC ABSA            </t>
+          <t>ABSA       380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -806,7 +806,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ABSA       380000 RWC ABSA            </t>
+          <t>ABSA       380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ABSA       380000 RWC ABSA            </t>
+          <t>ABSA       380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ABSA       380000 RWC ABSA            </t>
+          <t>ABSA       380000 RWC ABSA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">12335                                 </t>
+          <t>12335</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">12267                                 </t>
+          <t>12267</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">SPU 12287                             </t>
+          <t>SPU 12287</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -920,7 +920,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">SPU                                   </t>
+          <t>SPU</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -939,7 +939,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">SPU                                   </t>
+          <t>SPU</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -981,7 +981,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JANKEN AUTO SPARES PTY LTD ta J AND B AUTO SPARES CJ7071</t>
+          <t>JANKEN AUTO SPARES PTY LTD TA J AND B AUTO SPARES CJ7071</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">17229 172296 JH LAU NHU2312:37        </t>
+          <t>17229 172296 JH LAU NHU2312:37</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUMAX 232 CC ta AUTOBOYS RIVERSDALE SC6125</t>
+          <t>CUMAX 232 CC TA AUTOBOYS RIVERSDALE SC6125</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">E062  E062 FABERTEC NHU2312:36        </t>
+          <t>E062  E062 FABERTEC NHU2312:36</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">BIBCA 532020 BIBCA  NHU2312:37        </t>
+          <t>BIBCA 532020 BIBCA  NHU2312:37</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Employers For Christ Bloemfontein CE5010</t>
+          <t>EMPLOYERS FOR CHRIST BLOEMFONTEIN CE5010</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">17228 172281 HJ LE  NHU2312:37        </t>
+          <t>17228 172281 HJ LE  NHU2312:37</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">17208 172082 JC JAC ZCX8314:22        </t>
+          <t>17208 172082 JC JAC ZCX8314:22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">17228 172289 AJ CRO ZCX8314:22        </t>
+          <t>17228 172289 AJ CRO ZCX8314:22</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Stefani SB Lockman-Naidoo t/a SN Transport Services CS5275</t>
+          <t>STEFANI SB LOCKMAN NAIDOO T/A SN TRANSPORT SERVICES CS5275</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Randtip 75 CC t/a Zenith Mining and Industrial Supplies CR7167</t>
+          <t>RANDTIP 75 CC T/A ZENITH MINING AND INDUSTRIAL SUPPLIES CR7167</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">17201 172015 A KEEV ZCX8314:22        </t>
+          <t>17201 172015 A KEEV ZCX8314:22</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">E062  E062 FABERTEC NHU2312:36        </t>
+          <t>E062  E062 FABERTEC NHU2312:36</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Electrical Projects  Padero Investment cc CE7028</t>
+          <t>ELECTRICAL PROJECTS PADERO INVESTMENT CC CE7028</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kimcity Pty Ltd  -  D535 CK5075</t>
+          <t>KIMCITY PTY LTD D535 CK5075</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Boland Toilets CB7009</t>
+          <t>BOLAND TOILETS CB7009</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Du Toit Broers Landgoed (Pty) Ltd CD5160</t>
+          <t>DU TOIT BROERS LANDGOED (PTY) LTD CD5160</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>E AND C  EARTHWORX CE7008</t>
+          <t>E AND C EARTHWORX CE7008</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kimcity (Pty) Ltd  -  D544 CK5076</t>
+          <t>KIMCITY (PTY) LTD D544 CK5076</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RELESEGO CO-OPERATIVE LIMITED PTY LTD SR6130</t>
+          <t>RELESEGO CO OPERATIVE LIMITED PTY LTD SR6130</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Haggie Distribution - ACC 11593 CH7041</t>
+          <t>HAGGIE DISTRIBUTION ACC 11593 CH7041</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AFRICAN GATEWAY CONSTRUCTION PTY LTD ta LIVING DESIGNS SA6185</t>
+          <t>AFRICAN GATEWAY CONSTRUCTION PTY LTD TA LIVING DESIGNS SA6185</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BP TAUOU PTY LTD ta BP TAUOA CONSTRUCTION AND MAINTENANE SB6154</t>
+          <t>BP TAUOU PTY LTD TA BP TAUOA CONSTRUCTION AND MAINTENANE SB6154</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">72035 720350 DIV56  NHU2312:36        </t>
+          <t>72035 720350 DIV56  NHU2312:36</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MTN Business CM7058</t>
+          <t>MTN BUSINESS CM7058</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">17235 172355 K KRUU ZCX8314:22        </t>
+          <t>17235 172355 K KRUU ZCX8314:22</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LEBO AND RARA GENERAL TRADER PTY LTD ta LR CONSULTANT SL6106</t>
+          <t>LEBO AND RARA GENERAL TRADER PTY LTD TA LR CONSULTANT SL6106</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kalgro Manufacturing (Pty) Ltd CK7120</t>
+          <t>KALGRO MANUFACTURING (PTY) LTD CK7120</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Reatlegile Support Services (Pty) Ltd SR6067</t>
+          <t>REATLEGILE SUPPORT SERVICES (PTY) LTD SR6067</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUMAX 232 CC ta AUTOBOYS RIVERSDALE SC6125</t>
+          <t>CUMAX 232 CC TA AUTOBOYS RIVERSDALE SC6125</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hlases Surveys CC CH7121</t>
+          <t>HLASES SURVEYS CC CH7121</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lekhooe Renovations (Pty) Ltd SL6049</t>
+          <t>LEKHOOE RENOVATIONS (PTY) LTD SL6049</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">E062  E062 FABERTEC NHU2312:36        </t>
+          <t>E062  E062 FABERTEC NHU2312:36</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">E062  E062 FABERTEC NHU2312:36        </t>
+          <t>E062  E062 FABERTEC NHU2312:36</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MACWILL ENTERPRISES PTY LTD ta MACS PROJECTS SM6254</t>
+          <t>MACWILL ENTERPRISES PTY LTD TA MACS PROJECTS SM6254</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUMAX 232 CC ta AUTOBOYS RIVERSDALE SC6125</t>
+          <t>CUMAX 232 CC TA AUTOBOYS RIVERSDALE SC6125</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MACWILL ENTERPRISES PTY LTD ta MACS PROJECTS SM6254</t>
+          <t>MACWILL ENTERPRISES PTY LTD TA MACS PROJECTS SM6254</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TJs Joinery Cc ST6015</t>
+          <t>TJS JOINERY CC ST6015</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>De Werf N7 Service Station (Pty) Ltd CD5149</t>
+          <t>DE WERF N7 SERVICE STATION (PTY) LTD CD5149</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dirisanang Investement Group CD5165</t>
+          <t>DIRISANANG INVESTEMENT GROUP CD5165</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GMJ Civils (Pty) Ltd SG6057</t>
+          <t>GMJ CIVILS (PTY) LTD SG6057</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Laubscher Concrete Floors CC SL6045</t>
+          <t>LAUBSCHER CONCRETE FLOORS CC SL6045</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>R Phila Construction (Pty) Ltd SR6042</t>
+          <t>R PHILA CONSTRUCTION (PTY) LTD SR6042</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Phumelela Consultancy (Pty) Ltd SP6052</t>
+          <t>PHUMELELA CONSULTANCY (PTY) LTD SP6052</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Klipkor Infra (Pty) Ltd CK7118</t>
+          <t>KLIPKOR INFRA (PTY) LTD CK7118</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">BIBCF 532020 BIBC   NHU2312:37        </t>
+          <t>BIBCF 532020 BIBC   NHU2312:37</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MACWILL ENTERPRISES PTY LTD ta MACS PROJECTS SM6254</t>
+          <t>MACWILL ENTERPRISES PTY LTD TA MACS PROJECTS SM6254</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GMJ Civils (Pty) Ltd SG6057</t>
+          <t>GMJ CIVILS (PTY) LTD SG6057</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>THUSO YA  DICHABA ENTERPRISE PTY LTD ST6111</t>
+          <t>THUSO YA DICHABA ENTERPRISE PTY LTD ST6111</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Desley Meubels CD5019</t>
+          <t>DESLEY MEUBELS CD5019</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Vanstone Precast (Pty) Ltd-RENEGOCIATE CV7012</t>
+          <t>VANSTONE PRECAST (PTY) LTD RENEGOCIATE CV7012</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Otto Signs CO7038</t>
+          <t>OTTO SIGNS CO7038</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>K2015243515 SOUTH AFRICA PTY LTD ta R AND M CONSTRUCTION INC SK6078</t>
+          <t>K2015243515 SOUTH AFRICA PTY LTD TA R AND M CONSTRUCTION INC SK6078</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lekhooe Renovations (Pty) Ltd SL6049</t>
+          <t>LEKHOOE RENOVATIONS (PTY) LTD SL6049</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>K2020626391 SOUTH AFRICA (PTY) LTD ta LEGEND CIVILS SK6057</t>
+          <t>K2020626391 SOUTH AFRICA (PTY) LTD TA LEGEND CIVILS SK6057</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>K2020626391 SOUTH AFRICA (PTY) LTD ta LEGEND CIVILS SK6057</t>
+          <t>K2020626391 SOUTH AFRICA (PTY) LTD TA LEGEND CIVILS SK6057</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Badec Bros Deco (Pty Ltd CB5149</t>
+          <t>BADEC BROS DECO (PTY LTD CB5149</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Kim Roads CC CK7042</t>
+          <t>KIM ROADS CC CK7042</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nolcoe CC ta TG Motors CN7172</t>
+          <t>NOLCOE CC TA TG MOTORS CN7172</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>JTSS Trading Enterprise CC SJ6054</t>
+          <t>JTSS TRADING ENTERPRISE CC SJ6054</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Digifusion Signs (Pty) Ltd CD5154</t>
+          <t>DIGIFUSION SIGNS (PTY) LTD CD5154</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MICHAEL PAUL JOSHUA (PTY) LTD ta LIFE PROJECTS SM6234</t>
+          <t>MICHAEL PAUL JOSHUA (PTY) LTD TA LIFE PROJECTS SM6234</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>LAFARGE EAST LONDON R1200 (Aggragates) CL7029</t>
+          <t>LAFARGE EAST LONDON R1200 (AGGRAGATES) CL7029</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CGIS REFRIGERATION GROUP PTY LTD ta INSULATED STRUCTURES 1989 SC6151</t>
+          <t>CGIS REFRIGERATION GROUP PTY LTD TA INSULATED STRUCTURES 1989 SC6151</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Fibertex - South Africa Pty Ltd CF7091</t>
+          <t>FIBERTEX SOUTH AFRICA PTY LTD CF7091</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Victors Diesels CC CV7037</t>
+          <t>VICTORS DIESELS CC CV7037</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Rocla Blackheath CR7031</t>
+          <t>ROCLA BLACKHEATH CR7031</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>HLABO GROUP PTY LTD ta HLABO PROJECTS SH6084</t>
+          <t>HLABO GROUP PTY LTD TA HLABO PROJECTS SH6084</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Dukathole Central Region Pty Ltd ta Blockpave KBY CD7110</t>
+          <t>DUKATHOLE CENTRAL REGION PTY LTD TA BLOCKPAVE KBY CD7110</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NC Fire and Safety CC SN6039</t>
+          <t>NC FIRE AND SAFETY CC SN6039</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Core Audit CC7206</t>
+          <t>CORE AUDIT CC7206</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BRAVOSCAN 70 CC ta MULTIPROOFING SB6152</t>
+          <t>BRAVOSCAN 70 CC TA MULTIPROOFING SB6152</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>VALOTHRON 57 CC ta AVEO CONSTRUCTION SV6048</t>
+          <t>VALOTHRON 57 CC TA AVEO CONSTRUCTION SV6048</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Light Alliance Projects (Pty) Ltd CL7126</t>
+          <t>LIGHT ALLIANCE PROJECTS (PTY) LTD CL7126</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Cherangani Trade and invest 444 (Pty) Ltd CC7299</t>
+          <t>CHERANGANI TRADE AND INVEST 444 (PTY) LTD CC7299</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Coastal - Nelspruit CC7017</t>
+          <t>COASTAL NELSPRUIT CC7017</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Axiom Consulting Engineers (Pty) Ltd CA7246</t>
+          <t>AXIOM CONSULTING ENGINEERS (PTY) LTD CA7246</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>GMJ Civils (Pty) Ltd SG6057</t>
+          <t>GMJ CIVILS (PTY) LTD SG6057</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Kivu Civils and Construction CC SK6146</t>
+          <t>KIVU CIVILS AND CONSTRUCTION CC SK6146</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Kaytech Engineered Fabrics CK7014</t>
+          <t>KAYTECH ENGINEERED FABRICS CK7014</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BASTIPOINT PTY LTD ta HOME DECOR CB7226</t>
+          <t>BASTIPOINT PTY LTD TA HOME DECOR CB7226</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ENTRAWOOD CC ta ENTRAWOOD OFFICE FURNITURE SOLUTIONS SE6123</t>
+          <t>ENTRAWOOD CC TA ENTRAWOOD OFFICE FURNITURE SOLUTIONS SE6123</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ALUMINIUM PROPERTY HOLDINGS ta ALL ALUMINIUM SA6143</t>
+          <t>ALUMINIUM PROPERTY HOLDINGS TA ALL ALUMINIUM SA6143</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NC Fire and Safety CC SN6039</t>
+          <t>NC FIRE AND SAFETY CC SN6039</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Thiyiselan Construction Pty Ltd ST6014</t>
+          <t>THIYISELAN CONSTRUCTION PTY LTD ST6014</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ITALTILE - Umhlanga en PTA CI7015</t>
+          <t>ITALTILE UMHLANGA EN PTA CI7015</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Thiyiselan Construction Pty Ltd ST6014</t>
+          <t>THIYISELAN CONSTRUCTION PTY LTD ST6014</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">STDF  322550 STANDA NHU2312:36        </t>
+          <t>STDF  322550 STANDA NHU2312:36</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ALUMINIUM PROPERTY HOLDINGS ta ALL ALUMINIUM SA6143</t>
+          <t>ALUMINIUM PROPERTY HOLDINGS TA ALL ALUMINIUM SA6143</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Lafarge Industries (189343) Cement / Readymix CL7003</t>
+          <t>LAFARGE INDUSTRIES (189343) CEMENT / READYMIX CL7003</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ENTRAWOOD CC ta ENTRAWOOD OFFICE FURNITURE SOLUTIONS SE6123</t>
+          <t>ENTRAWOOD CC TA ENTRAWOOD OFFICE FURNITURE SOLUTIONS SE6123</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve">CLOSE BALANCE                         </t>
+          <t>CLOSE BALANCE</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
